--- a/tests/test_data/south_africa_target_data.xlsx
+++ b/tests/test_data/south_africa_target_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamieco\PycharmProjects\hpvsim\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E6A162-9D11-4977-B69D-C317D8FA736D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68837A0C-F8C0-4A0F-952C-1C90CD3484A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2430" yWindow="1920" windowWidth="21600" windowHeight="12735" xr2:uid="{2BDBFF24-AB52-564F-A66B-D2A1566107A3}"/>
   </bookViews>
@@ -55,10 +55,10 @@
     <t>value</t>
   </si>
   <si>
-    <t>hpv_prevalence</t>
+    <t>total_cancer_incidence</t>
   </si>
   <si>
-    <t>total_cancer_incidence</t>
+    <t>detectable_hpv_prevalence</t>
   </si>
 </sst>
 </file>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC872691-F7C5-B447-AD6F-7138B02EAF71}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>2010</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -473,7 +473,7 @@
         <v>2010</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -493,7 +493,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -513,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -533,7 +533,7 @@
         <v>2010</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -553,7 +553,7 @@
         <v>2010</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>45</v>
@@ -573,7 +573,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>55</v>
@@ -613,7 +613,7 @@
         <v>2010</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -633,7 +633,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>2010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -675,7 +675,7 @@
         <v>2010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -697,7 +697,7 @@
         <v>2010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -719,7 +719,7 @@
         <v>2010</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -741,7 +741,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>45</v>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -785,7 +785,7 @@
         <v>2010</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>55</v>
@@ -807,7 +807,7 @@
         <v>2010</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -829,7 +829,7 @@
         <v>2010</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>2010</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -873,7 +873,7 @@
         <v>2010</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -895,7 +895,7 @@
         <v>2010</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -917,7 +917,7 @@
         <v>2010</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>40</v>
@@ -939,7 +939,7 @@
         <v>2010</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>45</v>
@@ -961,7 +961,7 @@
         <v>2010</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -988,7 +988,7 @@
         <v>2010</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>55</v>
@@ -1008,7 +1008,7 @@
         <v>2010</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>65</v>
